--- a/data/trans_camb/P6901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,38</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-32,74; 6,19</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; 12,18</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-22,65; 22,6</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-26,71; 25,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,89; 5,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,45; 12,28</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-20,68%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,38%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-41,57; 10,67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-43,33; 18,69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 42,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-32,47; 42,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 8,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,33; 18,44</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 20,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 21,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 15,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,99; 7,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 16,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 16,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,66; 11,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 16,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 12,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 28,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 29,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; 20,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,63; 8,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 22,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 22,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; 15,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 21,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,86; 15,98</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 26,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 21,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,01; -4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 34,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,3; 40,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,72; 25,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; 24,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 23,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; 2,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,43%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,09; 38,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,01; 31,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,4; -7,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,33; 69,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 79,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,81; 55,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,38; 38,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 35,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,49; 3,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,55; 20,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 25,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,44; 16,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,55; 24,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 31,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,28; 26,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 17,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 23,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; 14,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 34,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,15; 40,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,4; 24,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,98; 43,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 54,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,75; 48,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 26,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 36,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,83; 21,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,03; 32,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,89; 40,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,07; 38,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,9; 56,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,24; 56,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,24; 52,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 32,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,25; 36,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 37,6</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,29%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,57; 63,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,24; 77,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,01; 76,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,1; 173,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,55; 194,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 165,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; 59,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 69,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 73,16</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,43</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,01; 16,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,13; 0,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,35; 12,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,25; 40,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 53,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,44; 27,19</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 16,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,34; 6,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 10,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,97%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,54; 23,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,48; 0,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,51; 18,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,17; 76,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 115,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; 49,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; 24,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; 8,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,97; 16,14</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,82</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,55</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,47; 1,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 29,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; 14,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,09; 4,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,25; 20,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,55; 5,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,19; -1,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 23,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,16; 9,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,57%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,84; 0,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 50,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,26; 23,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,3; 5,05</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,75; 27,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,57; 6,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,62; -2,66</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 35,05</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; 14,03</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,41</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,17</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,93; 6,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,34; -12,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 22,05</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 25,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 26,12</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,21; 16,21</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,99; 9,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,94; -2,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 13,37</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,58%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,69%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,66%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,48; 8,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,22; -16,7</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 30,31</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,09; 38,61</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,02; 40,05</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,72; 23,41</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; 13,07</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,37; -3,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,97; 18,11</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; 5,7</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 6,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 4,02</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 8,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 14,66</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 5,8</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 4,38</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 7,33</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 3,31</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 7,73</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 8,34</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 5,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; 10,94</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 20,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 7,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 5,96</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 9,96</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 4,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,64</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 16,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 12,18</t>
+          <t>-33,95; 13,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,99; 28,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 25,74</t>
+          <t>-28,43; 25,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; 15,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 12,28</t>
+          <t>-24,13; 11,99</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>-7,73%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,93; 25,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 18,69</t>
+          <t>-42,93; 19,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,05; 50,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 42,07</t>
+          <t>-34,43; 41,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,05; 24,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 18,44</t>
+          <t>-30,19; 18,4</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 15,63</t>
+          <t>-14,28; 16,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 16,97</t>
+          <t>-12,06; 16,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 12,4</t>
+          <t>-9,09; 12,65</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 20,93</t>
+          <t>-16,96; 21,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 22,52</t>
+          <t>-12,6; 22,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 15,98</t>
+          <t>-10,58; 16,53</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>-22,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>-12,41</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,01; -4,51</t>
+          <t>-41,59; -3,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 25,8</t>
+          <t>-18,99; 25,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 2,46</t>
+          <t>-27,57; 2,57</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>-28,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,43%</t>
+          <t>-16,52%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,4; -7,15</t>
+          <t>-48,22; -6,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 55,73</t>
+          <t>-22,85; 55,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 3,72</t>
+          <t>-32,44; 3,87</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>12,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>5,72</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 20,84</t>
+          <t>-3,87; 28,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 16,35</t>
+          <t>-28,21; 16,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 24,56</t>
+          <t>-21,59; 24,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 26,43</t>
+          <t>-7,91; 46,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 17,26</t>
+          <t>-3,86; 22,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 14,75</t>
+          <t>-9,08; 24,4</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 34,43</t>
+          <t>-3,94; 46,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 24,5</t>
+          <t>-35,92; 25,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 43,51</t>
+          <t>-25,38; 40,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 48,04</t>
+          <t>-10,21; 101,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 26,92</t>
+          <t>-4,75; 34,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 21,82</t>
+          <t>-12,26; 37,43</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,19</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>14,93</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 38,22</t>
+          <t>-8,18; 38,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 52,75</t>
+          <t>-18,99; 52,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 37,6</t>
+          <t>-4,08; 37,7</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 76,33</t>
+          <t>-9,94; 76,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 165,3</t>
+          <t>-19,36; 170,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 73,16</t>
+          <t>-4,59; 73,33</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-8,26</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 12,08</t>
+          <t>-29,34; 12,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 27,19</t>
+          <t>-24,92; 27,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 10,42</t>
+          <t>-18,46; 10,67</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>-6,75%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 18,5</t>
+          <t>-35,02; 18,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 49,75</t>
+          <t>-27,65; 50,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 16,14</t>
+          <t>-21,73; 16,4</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-9,93</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 14,48</t>
+          <t>-16,89; 14,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 5,23</t>
+          <t>-23,86; 5,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 9,42</t>
+          <t>-12,37; 9,21</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,73%</t>
+          <t>-11,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-2,82%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 23,16</t>
+          <t>-22,12; 23,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 6,66</t>
+          <t>-26,42; 6,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 14,03</t>
+          <t>-16,1; 13,94</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>5,01</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,63; 22,05</t>
+          <t>1,78; 22,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 16,21</t>
+          <t>-24,89; 16,56</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 13,37</t>
+          <t>-10,73; 13,87</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2,69; 30,31</t>
+          <t>2,59; 30,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 23,41</t>
+          <t>-31,73; 24,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 18,11</t>
+          <t>-13,59; 18,28</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 4,02</t>
+          <t>-8,87; 3,74</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 5,8</t>
+          <t>-7,78; 8,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,31</t>
+          <t>-5,51; 4,4</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 5,67</t>
+          <t>-11,54; 5,2</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 7,77</t>
+          <t>-9,64; 11,43</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 4,52</t>
+          <t>-6,95; 5,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6901-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6901-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 16,63</t>
+          <t>-27,56; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 6,19</t>
+          <t>-34,36; 3,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 13,13</t>
+          <t>-35,19; 14,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 28,81</t>
+          <t>-16,01; 30,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 22,6</t>
+          <t>-24,44; 20,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 25,13</t>
+          <t>-27,24; 25,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 15,68</t>
+          <t>-16,24; 13,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 5,32</t>
+          <t>-23,28; 5,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 11,99</t>
+          <t>-22,62; 11,72</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 25,63</t>
+          <t>-33,59; 20,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 10,67</t>
+          <t>-43,22; 5,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 19,4</t>
+          <t>-43,34; 21,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 50,75</t>
+          <t>-19,4; 52,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 42,3</t>
+          <t>-29,14; 37,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 41,03</t>
+          <t>-33,28; 40,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 24,25</t>
+          <t>-20,61; 21,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 8,22</t>
+          <t>-29,62; 7,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 18,4</t>
+          <t>-29,92; 17,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 20,16</t>
+          <t>-5,85; 19,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 21,34</t>
+          <t>-0,86; 20,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 16,09</t>
+          <t>-16,12; 15,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 7,39</t>
+          <t>-25,62; 9,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 16,73</t>
+          <t>-12,57; 16,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 16,94</t>
+          <t>-11,63; 17,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 11,95</t>
+          <t>-8,23; 13,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 16,83</t>
+          <t>-1,31; 17,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 12,65</t>
+          <t>-9,71; 13,05</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 28,62</t>
+          <t>-6,37; 25,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 29,57</t>
+          <t>-0,78; 28,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 21,64</t>
+          <t>-18,57; 21,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 8,98</t>
+          <t>-28,15; 11,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 22,23</t>
+          <t>-12,94; 20,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 22,42</t>
+          <t>-12,32; 23,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 15,55</t>
+          <t>-9,8; 16,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 21,68</t>
+          <t>-1,56; 22,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 16,53</t>
+          <t>-10,88; 16,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 26,1</t>
+          <t>-6,28; 28,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 21,26</t>
+          <t>-16,69; 23,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -3,86</t>
+          <t>-41,09; -1,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 34,63</t>
+          <t>-17,91; 38,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 40,76</t>
+          <t>-12,26; 42,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 25,88</t>
+          <t>-19,79; 23,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 24,23</t>
+          <t>-6,23; 23,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 23,39</t>
+          <t>-9,0; 23,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 2,57</t>
+          <t>-25,95; 2,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 38,73</t>
+          <t>-7,01; 43,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 31,17</t>
+          <t>-19,42; 34,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,22; -6,73</t>
+          <t>-47,35; -2,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 69,11</t>
+          <t>-22,26; 76,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 79,72</t>
+          <t>-13,43; 82,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 55,28</t>
+          <t>-23,27; 43,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 38,12</t>
+          <t>-7,62; 36,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 35,77</t>
+          <t>-11,12; 36,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 3,87</t>
+          <t>-31,86; 3,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 28,39</t>
+          <t>-3,64; 27,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 25,78</t>
+          <t>-9,63; 25,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 16,96</t>
+          <t>-26,67; 16,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 24,23</t>
+          <t>-20,64; 23,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 31,15</t>
+          <t>-11,01; 31,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 46,41</t>
+          <t>-9,77; 34,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 22,2</t>
+          <t>-5,44; 22,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 23,17</t>
+          <t>-5,37; 22,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 24,4</t>
+          <t>-8,38; 24,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 46,88</t>
+          <t>-4,4; 44,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 40,18</t>
+          <t>-12,37; 40,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 25,6</t>
+          <t>-35,22; 25,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 40,36</t>
+          <t>-24,09; 40,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 54,17</t>
+          <t>-12,11; 51,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 101,61</t>
+          <t>-11,85; 61,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 34,05</t>
+          <t>-6,85; 34,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 36,43</t>
+          <t>-6,67; 34,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 37,43</t>
+          <t>-11,0; 37,56</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 32,22</t>
+          <t>-23,0; 32,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 40,08</t>
+          <t>-23,37; 38,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 38,25</t>
+          <t>-7,47; 39,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 56,64</t>
+          <t>-28,08; 51,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 56,84</t>
+          <t>-31,66; 56,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 52,71</t>
+          <t>-17,45; 56,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 32,92</t>
+          <t>-12,6; 33,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 36,46</t>
+          <t>-11,61; 37,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 37,7</t>
+          <t>-3,75; 34,48</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 63,32</t>
+          <t>-28,73; 57,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 77,69</t>
+          <t>-27,15; 71,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 76,31</t>
+          <t>-8,86; 81,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 173,05</t>
+          <t>-29,75; 135,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 194,46</t>
+          <t>-27,15; 197,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 170,4</t>
+          <t>-18,5; 210,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 59,73</t>
+          <t>-16,1; 61,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 69,49</t>
+          <t>-13,76; 66,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 73,33</t>
+          <t>-2,95; 65,08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 16,22</t>
+          <t>-19,94; 17,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 0,45</t>
+          <t>-52,46; -0,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 12,14</t>
+          <t>-28,55; 11,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 40,48</t>
+          <t>-15,84; 41,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,52</t>
+          <t>7,27; 52,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 27,49</t>
+          <t>-25,86; 27,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 16,55</t>
+          <t>-14,68; 17,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 6,49</t>
+          <t>-36,07; 6,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 10,67</t>
+          <t>-20,22; 9,62</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 23,69</t>
+          <t>-23,92; 26,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,48; 0,3</t>
+          <t>-63,21; 0,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 18,95</t>
+          <t>-33,62; 16,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 76,66</t>
+          <t>-17,39; 84,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 115,02</t>
+          <t>7,83; 112,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 50,38</t>
+          <t>-28,37; 54,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 24,58</t>
+          <t>-17,54; 27,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 8,8</t>
+          <t>-44,9; 9,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 16,4</t>
+          <t>-24,33; 13,9</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 1,1</t>
+          <t>-38,15; -2,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 29,42</t>
+          <t>0,11; 27,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 14,53</t>
+          <t>-16,11; 15,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 4,09</t>
+          <t>-32,89; 4,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 20,47</t>
+          <t>-6,48; 20,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 5,12</t>
+          <t>-25,19; 3,37</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -1,5</t>
+          <t>-27,87; -1,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,21; 23,26</t>
+          <t>2,64; 23,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 9,21</t>
+          <t>-11,99; 10,14</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 0,05</t>
+          <t>-51,96; -4,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,67; 50,88</t>
+          <t>0,16; 46,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 23,4</t>
+          <t>-21,88; 25,86</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 5,05</t>
+          <t>-37,69; 4,74</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 27,9</t>
+          <t>-6,84; 27,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 6,73</t>
+          <t>-27,32; 4,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-35,62; -2,66</t>
+          <t>-36,31; -2,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,86; 35,05</t>
+          <t>3,26; 34,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 13,94</t>
+          <t>-15,37; 15,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 6,44</t>
+          <t>-23,43; 7,09</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -12,86</t>
+          <t>-48,57; -12,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,78; 22,06</t>
+          <t>2,25; 22,82</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 25,62</t>
+          <t>-14,82; 23,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 26,12</t>
+          <t>-15,9; 25,4</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 16,56</t>
+          <t>-26,78; 15,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 9,59</t>
+          <t>-15,45; 9,46</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -2,39</t>
+          <t>-31,85; -2,93</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 13,87</t>
+          <t>-8,14; 14,86</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 8,67</t>
+          <t>-28,61; 9,22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-59,22; -16,7</t>
+          <t>-59,28; -16,3</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2,59; 30,28</t>
+          <t>2,77; 32,2</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 38,61</t>
+          <t>-17,54; 34,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 40,05</t>
+          <t>-19,74; 38,63</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 24,61</t>
+          <t>-33,19; 20,72</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 13,07</t>
+          <t>-19,04; 12,49</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-39,37; -3,26</t>
+          <t>-39,54; -4,05</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 18,28</t>
+          <t>-10,12; 20,3</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,7</t>
+          <t>-6,96; 5,26</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 6,08</t>
+          <t>-6,95; 5,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,74</t>
+          <t>-8,8; 3,93</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 8,11</t>
+          <t>-8,01; 8,13</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 14,66</t>
+          <t>-0,85; 14,08</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 8,45</t>
+          <t>-7,97; 8,01</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 4,38</t>
+          <t>-5,31; 4,71</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,33</t>
+          <t>-2,36; 7,34</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,4</t>
+          <t>-5,92; 5,43</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 7,73</t>
+          <t>-8,98; 7,15</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 8,34</t>
+          <t>-8,87; 8,13</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 5,2</t>
+          <t>-11,29; 5,39</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 10,94</t>
+          <t>-9,75; 10,99</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 20,0</t>
+          <t>-0,58; 19,53</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 11,43</t>
+          <t>-9,85; 10,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,96</t>
+          <t>-6,7; 6,4</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 9,96</t>
+          <t>-3,08; 9,93</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 5,96</t>
+          <t>-7,5; 7,37</t>
         </is>
       </c>
     </row>
